--- a/topology_linker/out/comparisons.xlsx
+++ b/topology_linker/out/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hutchinsons\Documents\MI - PROJECTS\topology_linker\topology_linker\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90209EF3-0FF2-4C81-9FED-C6D89607C165}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F31301-0763-4B21-A0E7-D936C2848458}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C0AC8A49-FEB8-4CBC-944C-4C4F981CE605}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{C0AC8A49-FEB8-4CBC-944C-4C4F981CE605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Pool</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>(REPORTED)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> into pool</a:t>
+              <a:t> into pool (5% error bars)</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -714,20 +717,35 @@
             <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:pattFill prst="pct5">
-                <a:fgClr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
                   <a:srgbClr val="C00000"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="9525">
-                <a:noFill/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$18</c:f>
@@ -915,7 +933,9 @@
       <c:valAx>
         <c:axId val="1297173440"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,6 +1067,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89007661778387592"/>
+          <c:y val="8.1093173722633569E-2"/>
+          <c:w val="9.3495815336039137E-2"/>
+          <c:h val="0.1064262243306337"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1154,7 +1184,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> delivered</a:t>
+              <a:t> delivered (5% error bar)</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -1466,7 +1496,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1479,6 +1509,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$3:$I$18</c:f>
@@ -1609,7 +1658,10 @@
       <c:valAx>
         <c:axId val="1297173440"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1050"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1740,10 +1792,12 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="tr"/>
       <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4124,7 +4178,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E544AB0B-1222-4F8F-8A3E-E57630E95256}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4135,7 +4189,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{47804AC3-1D3C-4033-AEF1-752940A81325}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4146,7 +4200,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{12AC294D-78CB-4DD8-A734-0E22C9E67FFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4157,7 +4211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9273886" cy="6052705"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4190,7 +4244,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9273886" cy="6052705"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4223,7 +4277,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9273886" cy="6052705"/>
+    <xdr:ext cx="9295086" cy="6054397"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4549,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B84F25-E1A0-4F6D-A3D7-AD0B8234E026}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,11 +4704,11 @@
         <v>-262.5</v>
       </c>
       <c r="K3">
-        <f>C3-I3</f>
-        <v>29.099999999999994</v>
+        <f>C3-F3</f>
+        <v>35.199999999999989</v>
       </c>
       <c r="L3">
-        <f>D3-J3</f>
+        <f t="shared" ref="L3:L18" si="0">D3-J3</f>
         <v>23.800000000000011</v>
       </c>
       <c r="M3" t="s">
@@ -4704,11 +4758,11 @@
         <v>390.1</v>
       </c>
       <c r="K4">
-        <f>C4-I4</f>
-        <v>14.199999999999989</v>
+        <f t="shared" ref="K4:K18" si="1">C4-F4</f>
+        <v>16</v>
       </c>
       <c r="L4">
-        <f>D4-J4</f>
+        <f t="shared" si="0"/>
         <v>-68.600000000000023</v>
       </c>
       <c r="M4" t="s">
@@ -4754,11 +4808,11 @@
         <v>168</v>
       </c>
       <c r="K5">
-        <f>C5-I5</f>
-        <v>-0.20000000000000284</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L5">
-        <f>D5-J5</f>
+        <f t="shared" si="0"/>
         <v>-2.0999999999999943</v>
       </c>
     </row>
@@ -4794,11 +4848,11 @@
         <v>-215.7</v>
       </c>
       <c r="K6">
-        <f>C6-I6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>D6-J6</f>
+        <f t="shared" si="0"/>
         <v>-12.400000000000006</v>
       </c>
     </row>
@@ -4836,11 +4890,11 @@
         <v>216.70000000000005</v>
       </c>
       <c r="K7">
-        <f>C7-I7</f>
-        <v>-292.5</v>
+        <f t="shared" si="1"/>
+        <v>-4.8000000000000682</v>
       </c>
       <c r="L7">
-        <f>D7-J7</f>
+        <f t="shared" si="0"/>
         <v>293.99999999999994</v>
       </c>
       <c r="M7" t="s">
@@ -4885,11 +4939,11 @@
         <v>7.5</v>
       </c>
       <c r="K8">
-        <f>C8-I8</f>
-        <v>-24.1</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999993</v>
       </c>
       <c r="L8">
-        <f>D8-J8</f>
+        <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
     </row>
@@ -4925,11 +4979,11 @@
         <v>-38.200000000000003</v>
       </c>
       <c r="K9">
-        <f>C9-I9</f>
-        <v>-0.29999999999999716</v>
+        <f t="shared" si="1"/>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="L9">
-        <f>D9-J9</f>
+        <f t="shared" si="0"/>
         <v>-1.0999999999999943</v>
       </c>
     </row>
@@ -4965,11 +5019,11 @@
         <v>69</v>
       </c>
       <c r="K10">
-        <f>C10-I10</f>
-        <v>-8.6999999999999318</v>
+        <f t="shared" si="1"/>
+        <v>9.8999999999999773</v>
       </c>
       <c r="L10">
-        <f>D10-J10</f>
+        <f t="shared" si="0"/>
         <v>17.700000000000003</v>
       </c>
     </row>
@@ -5005,11 +5059,11 @@
         <v>64.7</v>
       </c>
       <c r="K11">
-        <f>C11-I11</f>
-        <v>6.1000000000000085</v>
+        <f t="shared" si="1"/>
+        <v>-2.8999999999999915</v>
       </c>
       <c r="L11">
-        <f>D11-J11</f>
+        <f t="shared" si="0"/>
         <v>15.299999999999997</v>
       </c>
       <c r="M11" t="s">
@@ -5048,11 +5102,11 @@
         <v>-90.3</v>
       </c>
       <c r="K12">
-        <f>C12-I12</f>
-        <v>-18.600000000000023</v>
+        <f t="shared" si="1"/>
+        <v>-0.80000000000001137</v>
       </c>
       <c r="L12">
-        <f>D12-J12</f>
+        <f t="shared" si="0"/>
         <v>20.899999999999991</v>
       </c>
     </row>
@@ -5088,11 +5142,11 @@
         <v>73.5</v>
       </c>
       <c r="K13">
-        <f>C13-I13</f>
-        <v>-22.699999999999989</v>
+        <f t="shared" si="1"/>
+        <v>-4</v>
       </c>
       <c r="L13">
-        <f>D13-J13</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -5128,11 +5182,11 @@
         <v>-31.1</v>
       </c>
       <c r="K14">
-        <f>C14-I14</f>
-        <v>-36.900000000000006</v>
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
       </c>
       <c r="L14">
-        <f>D14-J14</f>
+        <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
     </row>
@@ -5168,11 +5222,11 @@
         <v>-7</v>
       </c>
       <c r="K15">
-        <f>C15-I15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>D15-J15</f>
+        <f t="shared" si="0"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
@@ -5208,15 +5262,15 @@
         <v>33.799999999999997</v>
       </c>
       <c r="K16">
-        <f>C16-I16</f>
-        <v>2.0999999999999943</v>
+        <f t="shared" si="1"/>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="L16">
-        <f>D16-J16</f>
+        <f t="shared" si="0"/>
         <v>0.90000000000000568</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5248,15 +5302,15 @@
         <v>-0.3</v>
       </c>
       <c r="K17">
-        <f>C17-I17</f>
-        <v>8.5999999999999979</v>
+        <f t="shared" si="1"/>
+        <v>1.0999999999999979</v>
       </c>
       <c r="L17">
-        <f>D17-J17</f>
+        <f t="shared" si="0"/>
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5288,15 +5342,15 @@
         <v>-14</v>
       </c>
       <c r="K18">
-        <f>C18-I18</f>
-        <v>5.7000000000000011</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <f>D18-J18</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C3:C18)</f>
         <v>2858.6000000000004</v>
@@ -5309,6 +5363,254 @@
         <f>SUM(I3:I18)</f>
         <v>3196.8</v>
       </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="str">
+        <f>B1</f>
+        <v>(INTEGRATED)</v>
+      </c>
+      <c r="C23" s="3">
+        <v>200</v>
+      </c>
+      <c r="D23" s="3">
+        <v>381.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>55.9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>681.9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42.7</v>
+      </c>
+      <c r="J23" s="3">
+        <v>536.1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>111.4</v>
+      </c>
+      <c r="L23" s="3">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="M23" s="3">
+        <v>172.3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>111</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>203.4</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="S23" s="3">
+        <f>SUM(C23:R23)</f>
+        <v>2858.6000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="str">
+        <f>E1</f>
+        <v>(RTU)</v>
+      </c>
+      <c r="C24" s="9">
+        <v>164.8</v>
+      </c>
+      <c r="D24" s="9">
+        <v>365.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>686.7</v>
+      </c>
+      <c r="H24" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="I24" s="9">
+        <v>42.8</v>
+      </c>
+      <c r="J24" s="9">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="K24" s="9">
+        <v>114.3</v>
+      </c>
+      <c r="L24" s="9">
+        <v>289.7</v>
+      </c>
+      <c r="M24" s="9">
+        <v>176.3</v>
+      </c>
+      <c r="N24" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>203.3</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:S25" si="2">SUM(C24:R24)</f>
+        <v>2806.2000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="str">
+        <f>H1</f>
+        <v>(REPORTED)</v>
+      </c>
+      <c r="C25" s="3">
+        <v>170.9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>367.3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>974.4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>43</v>
+      </c>
+      <c r="J25" s="3">
+        <v>544.79999999999995</v>
+      </c>
+      <c r="K25" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>307.5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>195</v>
+      </c>
+      <c r="N25" s="3">
+        <v>147.9</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R25" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="2"/>
+        <v>3196.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K18">

--- a/topology_linker/out/comparisons.xlsx
+++ b/topology_linker/out/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hutchinsons\Documents\MI - PROJECTS\topology_linker\topology_linker\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F31301-0763-4B21-A0E7-D936C2848458}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B167C-BE1D-42BF-AE2A-271DA45C8F31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{C0AC8A49-FEB8-4CBC-944C-4C4F981CE605}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C0AC8A49-FEB8-4CBC-944C-4C4F981CE605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Pool</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>(INTEGRATED, CORRECTED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN </t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>Gap</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,7 +642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$18</c:f>
+              <c:f>Sheet1!$K$3:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -697,7 +709,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$18</c:f>
+              <c:f>Sheet1!$N$3:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1384,7 +1396,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1405,7 +1417,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$18</c:f>
+              <c:f>Sheet1!$L$3:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1471,7 +1483,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1530,7 +1542,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$18</c:f>
+              <c:f>Sheet1!$O$3:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2102,7 +2114,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2123,7 +2135,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$18</c:f>
+              <c:f>Sheet1!$M$3:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2189,7 +2201,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2210,7 +2222,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$18</c:f>
+              <c:f>Sheet1!$P$3:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4200,7 +4212,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{12AC294D-78CB-4DD8-A734-0E22C9E67FFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="50" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4277,7 +4289,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9295086" cy="6054397"/>
+    <xdr:ext cx="9277350" cy="6038850"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4603,33 +4615,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B84F25-E1A0-4F6D-A3D7-AD0B8234E026}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="4" max="10" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4643,34 +4658,52 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4683,48 +4716,66 @@
       <c r="D3" s="1">
         <v>-238.7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
+        <v>3560.1</v>
+      </c>
+      <c r="F3">
+        <v>213.3</v>
+      </c>
+      <c r="G3">
+        <v>-297</v>
+      </c>
+      <c r="H3">
         <v>3537.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="I3">
         <v>164.8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="J3">
         <v>-265.8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="K3" s="3">
+        <v>3537.5</v>
+      </c>
+      <c r="L3" s="9">
+        <v>164.8</v>
+      </c>
+      <c r="M3" s="9">
+        <v>-265.8</v>
+      </c>
+      <c r="N3" s="2">
         <v>3548.4</v>
       </c>
-      <c r="I3" s="3">
-        <f>130+N3</f>
+      <c r="O3" s="3">
+        <f>130+T3</f>
         <v>170.9</v>
       </c>
-      <c r="J3" s="4">
-        <f>-271.9+O3</f>
+      <c r="P3" s="4">
+        <f>-271.9+U3</f>
         <v>-262.5</v>
       </c>
-      <c r="K3">
-        <f>C3-F3</f>
+      <c r="Q3">
+        <f>C3-L3</f>
         <v>35.199999999999989</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L18" si="0">D3-J3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R18" si="0">D3-P3</f>
         <v>23.800000000000011</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>23</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>40.9</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>9.4</v>
       </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4737,46 +4788,64 @@
       <c r="D4" s="4">
         <v>321.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
+        <v>3643.8</v>
+      </c>
+      <c r="F4">
+        <v>382.3</v>
+      </c>
+      <c r="G4">
+        <v>320.7</v>
+      </c>
+      <c r="H4">
         <v>3638.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="I4">
         <v>365.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="J4">
         <v>353.4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="3">
+        <v>3638.5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>365.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>353.4</v>
+      </c>
+      <c r="N4" s="2">
         <v>3640</v>
       </c>
-      <c r="I4" s="3">
-        <f>308+N4</f>
+      <c r="O4" s="3">
+        <f>308+T4</f>
         <v>367.3</v>
       </c>
-      <c r="J4" s="4">
-        <f>318+O4</f>
+      <c r="P4" s="4">
+        <f>318+U4</f>
         <v>390.1</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K18" si="1">C4-F4</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">C4-L4</f>
         <v>16</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>-68.600000000000023</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <f>2.3+57</f>
         <v>59.3</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4789,34 +4858,52 @@
       <c r="D5" s="4">
         <v>165.9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
+        <v>2940.7</v>
+      </c>
+      <c r="F5">
+        <v>55.9</v>
+      </c>
+      <c r="G5">
+        <v>165.9</v>
+      </c>
+      <c r="H5">
         <v>2919.6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5">
         <v>54.9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="J5">
         <v>166.1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="K5" s="3">
+        <v>2919.6</v>
+      </c>
+      <c r="L5" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="M5" s="9">
+        <v>166.1</v>
+      </c>
+      <c r="N5" s="2">
         <v>2938.3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="O5" s="3">
         <v>56.1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="P5" s="4">
         <v>168</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>-2.0999999999999943</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4829,34 +4916,52 @@
       <c r="D6" s="4">
         <v>-228.1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
+        <v>2719</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-228.1</v>
+      </c>
+      <c r="H6">
         <v>2698.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="J6">
         <v>-226.6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K6" s="3">
+        <v>2698.6</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-226.6</v>
+      </c>
+      <c r="N6" s="2">
         <v>2714</v>
       </c>
-      <c r="I6" s="3">
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="P6" s="4">
         <v>-215.7</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>-12.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -4869,45 +4974,63 @@
       <c r="D7" s="4">
         <v>510.7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
+        <v>2947.1</v>
+      </c>
+      <c r="F7">
+        <v>765.3</v>
+      </c>
+      <c r="G7">
+        <v>427.3</v>
+      </c>
+      <c r="H7">
         <v>2925.2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="I7">
+        <v>813.9</v>
+      </c>
+      <c r="J7">
+        <v>379.6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2925.2</v>
+      </c>
+      <c r="L7" s="9">
         <v>686.7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="M7" s="9">
         <v>506.8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>2929.7</v>
       </c>
-      <c r="I7" s="3">
-        <f>75.9+N7</f>
+      <c r="O7" s="3">
+        <f>75.9+T7</f>
         <v>974.4</v>
       </c>
-      <c r="J7" s="4">
-        <f>1063.7+O7</f>
+      <c r="P7" s="4">
+        <f>1063.7+U7</f>
         <v>216.70000000000005</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>-4.8000000000000682</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>293.99999999999994</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>11</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>898.5</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>-847</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -4920,34 +5043,52 @@
       <c r="D8" s="4">
         <v>25.3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
+        <v>1754.5</v>
+      </c>
+      <c r="F8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
         <v>1731.7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="I8">
+        <v>32.1</v>
+      </c>
+      <c r="J8">
+        <v>15.8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1731.7</v>
+      </c>
+      <c r="L8" s="9">
         <v>23.8</v>
       </c>
-      <c r="G8" s="9">
+      <c r="M8" s="9">
         <v>24.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="N8" s="2">
         <v>1739.5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>50.6</v>
       </c>
-      <c r="J8" s="4">
+      <c r="P8" s="4">
         <v>7.5</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>2.6999999999999993</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4960,34 +5101,52 @@
       <c r="D9" s="4">
         <v>-39.299999999999997</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
+        <v>1702.7</v>
+      </c>
+      <c r="F9">
+        <v>42.7</v>
+      </c>
+      <c r="G9">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H9">
         <v>1683.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="I9">
         <v>42.8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="J9">
         <v>-35.6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="K9" s="3">
+        <v>1683.8</v>
+      </c>
+      <c r="L9" s="9">
+        <v>42.8</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-35.6</v>
+      </c>
+      <c r="N9" s="2">
         <v>1681.4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="O9" s="3">
         <v>43</v>
       </c>
-      <c r="J9" s="4">
+      <c r="P9" s="4">
         <v>-38.200000000000003</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>-1.0999999999999943</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -5000,34 +5159,52 @@
       <c r="D10" s="4">
         <v>86.7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
+        <v>1699.4</v>
+      </c>
+      <c r="F10">
+        <v>536.1</v>
+      </c>
+      <c r="G10">
+        <v>86.6</v>
+      </c>
+      <c r="H10">
         <v>1676.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="I10">
         <v>526.20000000000005</v>
       </c>
-      <c r="G10" s="9">
+      <c r="J10">
         <v>93.2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="K10" s="3">
+        <v>1676.5</v>
+      </c>
+      <c r="L10" s="9">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="M10" s="9">
+        <v>93.2</v>
+      </c>
+      <c r="N10" s="2">
         <v>1676.6</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="3">
         <v>544.79999999999995</v>
       </c>
-      <c r="J10" s="4">
+      <c r="P10" s="4">
         <v>69</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>9.8999999999999773</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>17.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -5040,37 +5217,59 @@
       <c r="D11" s="4">
         <v>80</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="F11">
+        <f>65.4+60.5</f>
+        <v>125.9</v>
+      </c>
+      <c r="G11">
+        <f>-5430.2+5495.6</f>
+        <v>65.400000000000546</v>
+      </c>
+      <c r="H11">
         <v>1057.0999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="I11">
+        <f>57.8+56.5</f>
         <v>114.3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="J11">
+        <f>-5439.2+5507.8</f>
+        <v>68.600000000000364</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1057.0999999999999</v>
+      </c>
+      <c r="L11" s="9">
+        <v>114.3</v>
+      </c>
+      <c r="M11" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="H11" s="2">
+      <c r="N11" s="2">
         <v>1062.9000000000001</v>
       </c>
-      <c r="I11" s="3">
+      <c r="O11" s="3">
         <v>105.3</v>
       </c>
-      <c r="J11" s="4">
+      <c r="P11" s="4">
         <v>64.7</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>-2.8999999999999915</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>15.299999999999997</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -5083,34 +5282,52 @@
       <c r="D12" s="4">
         <v>-69.400000000000006</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
+        <v>885.3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>289.8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-70.3</v>
+      </c>
+      <c r="H12" s="3">
         <v>874.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="I12" s="9">
         <v>289.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="J12" s="9">
         <v>-73.7</v>
       </c>
-      <c r="H12" s="2">
+      <c r="K12" s="3">
+        <v>874.2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>289.7</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-73.7</v>
+      </c>
+      <c r="N12" s="2">
         <v>879.1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="O12" s="3">
         <v>307.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="P12" s="4">
         <v>-90.3</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>20.899999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5123,34 +5340,52 @@
       <c r="D13" s="4">
         <v>97.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
+        <v>665.8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>172.3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="H13" s="3">
         <v>658.1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="I13" s="9">
         <v>176.3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="J13" s="9">
         <v>90.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="K13" s="3">
+        <v>658.1</v>
+      </c>
+      <c r="L13" s="9">
+        <v>176.3</v>
+      </c>
+      <c r="M13" s="9">
+        <v>90.2</v>
+      </c>
+      <c r="N13" s="2">
         <v>662</v>
       </c>
-      <c r="I13" s="3">
+      <c r="O13" s="3">
         <v>195</v>
       </c>
-      <c r="J13" s="4">
+      <c r="P13" s="4">
         <v>73.5</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5163,34 +5398,52 @@
       <c r="D14" s="4">
         <v>6.6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
+        <v>396</v>
+      </c>
+      <c r="F14" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H14" s="3">
         <v>391.6</v>
       </c>
-      <c r="F14" s="9">
+      <c r="I14" s="9">
         <v>112.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="J14" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="2">
+      <c r="K14" s="3">
+        <v>391.6</v>
+      </c>
+      <c r="L14" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N14" s="2">
         <v>393.4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="O14" s="3">
         <v>147.9</v>
       </c>
-      <c r="J14" s="4">
+      <c r="P14" s="4">
         <v>-31.1</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5203,34 +5456,52 @@
       <c r="D15" s="4">
         <v>-7.4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-7.4</v>
+      </c>
+      <c r="H15" s="3">
         <v>274.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="I15" s="9">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="J15" s="9">
         <v>-7.4</v>
       </c>
-      <c r="H15" s="2">
+      <c r="K15" s="3">
+        <v>274.5</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-7.4</v>
+      </c>
+      <c r="N15" s="2">
         <v>276.60000000000002</v>
       </c>
-      <c r="I15" s="3">
+      <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="P15" s="4">
         <v>-7</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5243,34 +5514,52 @@
       <c r="D16" s="4">
         <v>34.700000000000003</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
+        <v>285.8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>203.4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H16" s="3">
         <v>281.89999999999998</v>
       </c>
-      <c r="F16" s="9">
+      <c r="I16" s="9">
         <v>203.3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="J16" s="9">
         <v>32.1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="K16" s="3">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="L16" s="9">
+        <v>203.3</v>
+      </c>
+      <c r="M16" s="9">
+        <v>32.1</v>
+      </c>
+      <c r="N16" s="2">
         <v>283.60000000000002</v>
       </c>
-      <c r="I16" s="3">
+      <c r="O16" s="3">
         <v>201.3</v>
       </c>
-      <c r="J16" s="4">
+      <c r="P16" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>0.90000000000000568</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5283,34 +5572,52 @@
       <c r="D17" s="4">
         <v>-2.7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-2.7</v>
+      </c>
+      <c r="H17" s="3">
         <v>46.6</v>
       </c>
-      <c r="F17" s="9">
+      <c r="I17" s="9">
         <v>26.1</v>
       </c>
-      <c r="G17" s="9">
+      <c r="J17" s="9">
         <v>-2.7</v>
       </c>
-      <c r="H17" s="2">
+      <c r="K17" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="L17" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>-2.7</v>
+      </c>
+      <c r="N17" s="2">
         <v>48.5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="P17" s="4">
         <v>-0.3</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>1.0999999999999979</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5323,48 +5630,66 @@
       <c r="D18" s="7">
         <v>-3.5</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-3.5</v>
+      </c>
+      <c r="H18" s="6">
         <v>23.2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="I18" s="6">
         <v>19.3</v>
       </c>
-      <c r="G18" s="6">
+      <c r="J18" s="6">
         <v>-3.9</v>
       </c>
-      <c r="H18" s="5">
+      <c r="K18" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-3.9</v>
+      </c>
+      <c r="N18" s="5">
         <v>23.1</v>
       </c>
-      <c r="I18" s="6">
+      <c r="O18" s="6">
         <v>14.1</v>
       </c>
-      <c r="J18" s="7">
+      <c r="P18" s="7">
         <v>-14</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C3:C18)</f>
         <v>2858.6000000000004</v>
       </c>
-      <c r="F19">
-        <f>SUM(F3:F18)</f>
+      <c r="L19">
+        <f>SUM(L3:L18)</f>
         <v>2806.2000000000003</v>
       </c>
-      <c r="I19">
-        <f>SUM(I3:I18)</f>
+      <c r="O19">
+        <f>SUM(O3:O18)</f>
         <v>3196.8</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -5372,53 +5697,59 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="Y22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>B1</f>
         <v>(INTEGRATED)</v>
@@ -5429,56 +5760,62 @@
       <c r="D23" s="3">
         <v>381.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>55.9</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>681.9</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>26.5</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>42.7</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>536.1</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>111.4</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>288.89999999999998</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>172.3</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
         <v>111</v>
       </c>
-      <c r="O23" s="3">
+      <c r="U23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3">
+      <c r="V23" s="3">
         <v>203.4</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="W23" s="3">
         <v>27.2</v>
       </c>
-      <c r="R23" s="3">
+      <c r="X23" s="3">
         <v>19.8</v>
       </c>
-      <c r="S23" s="3">
-        <f>SUM(C23:R23)</f>
+      <c r="Y23" s="3">
+        <f>SUM(C23:X23)</f>
         <v>2858.6000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
-        <f>E1</f>
+        <f>K1</f>
         <v>(RTU)</v>
       </c>
       <c r="C24" s="9">
@@ -5487,56 +5824,62 @@
       <c r="D24" s="9">
         <v>365.5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="3">
         <v>54.9</v>
       </c>
-      <c r="F24" s="9">
+      <c r="L24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
+      <c r="M24" s="9">
         <v>686.7</v>
       </c>
-      <c r="H24" s="9">
+      <c r="N24" s="9">
         <v>23.8</v>
       </c>
-      <c r="I24" s="9">
+      <c r="O24" s="9">
         <v>42.8</v>
       </c>
-      <c r="J24" s="9">
+      <c r="P24" s="9">
         <v>526.20000000000005</v>
       </c>
-      <c r="K24" s="9">
+      <c r="Q24" s="9">
         <v>114.3</v>
       </c>
-      <c r="L24" s="9">
+      <c r="R24" s="9">
         <v>289.7</v>
       </c>
-      <c r="M24" s="9">
+      <c r="S24" s="9">
         <v>176.3</v>
       </c>
-      <c r="N24" s="9">
+      <c r="T24" s="9">
         <v>112.5</v>
       </c>
-      <c r="O24" s="9">
+      <c r="U24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="9">
+      <c r="V24" s="9">
         <v>203.3</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="W24" s="9">
         <v>26.1</v>
       </c>
-      <c r="R24" s="3">
+      <c r="X24" s="3">
         <v>19.3</v>
       </c>
-      <c r="S24" s="3">
-        <f t="shared" ref="S24:S25" si="2">SUM(C24:R24)</f>
+      <c r="Y24" s="3">
+        <f t="shared" ref="Y24:Y25" si="2">SUM(C24:X24)</f>
         <v>2806.2000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
-        <f>H1</f>
+        <f>N1</f>
         <v>(REPORTED)</v>
       </c>
       <c r="C25" s="3">
@@ -5545,54 +5888,60 @@
       <c r="D25" s="3">
         <v>367.3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>56.1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
+      <c r="M25" s="3">
         <v>974.4</v>
       </c>
-      <c r="H25" s="3">
+      <c r="N25" s="3">
         <v>50.6</v>
       </c>
-      <c r="I25" s="3">
+      <c r="O25" s="3">
         <v>43</v>
       </c>
-      <c r="J25" s="3">
+      <c r="P25" s="3">
         <v>544.79999999999995</v>
       </c>
-      <c r="K25" s="3">
+      <c r="Q25" s="3">
         <v>105.3</v>
       </c>
-      <c r="L25" s="3">
+      <c r="R25" s="3">
         <v>307.5</v>
       </c>
-      <c r="M25" s="3">
+      <c r="S25" s="3">
         <v>195</v>
       </c>
-      <c r="N25" s="3">
+      <c r="T25" s="3">
         <v>147.9</v>
       </c>
-      <c r="O25" s="3">
+      <c r="U25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3">
+      <c r="V25" s="3">
         <v>201.3</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="W25" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="R25" s="3">
+      <c r="X25" s="3">
         <v>14.1</v>
       </c>
-      <c r="S25" s="3">
+      <c r="Y25" s="3">
         <f t="shared" si="2"/>
         <v>3196.8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5611,9 +5960,15 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K18">
+  <conditionalFormatting sqref="Q3:Q18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5625,7 +5980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L18">
+  <conditionalFormatting sqref="R3:R18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
